--- a/NLP/csv_data/merged_predictions.xlsx
+++ b/NLP/csv_data/merged_predictions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gavin\OneDrive\Documents\GitHub\NLP-project\NLP\csv_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6370FBA-7D49-42AC-818A-19170603FE95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C32DF88-3100-4863-B414-D5EB28470200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -224,17 +224,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
@@ -555,7 +553,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,23 +561,23 @@
     <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="7" t="s">
         <v>1</v>
       </c>
     </row>
@@ -596,7 +594,7 @@
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -613,7 +611,7 @@
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -630,7 +628,7 @@
       <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -647,8 +645,8 @@
       <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>7</v>
+      <c r="E5" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -664,7 +662,7 @@
       <c r="D6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -681,8 +679,8 @@
       <c r="D7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>7</v>
+      <c r="E7" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -698,8 +696,8 @@
       <c r="D8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>7</v>
+      <c r="E8" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -715,8 +713,8 @@
       <c r="D9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>7</v>
+      <c r="E9" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -732,7 +730,7 @@
       <c r="D10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -749,7 +747,7 @@
       <c r="D11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -766,8 +764,8 @@
       <c r="D12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>7</v>
+      <c r="E12" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -783,8 +781,8 @@
       <c r="D13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>7</v>
+      <c r="E13" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -800,7 +798,7 @@
       <c r="D14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -817,7 +815,7 @@
       <c r="D15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -834,7 +832,7 @@
       <c r="D16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -851,8 +849,8 @@
       <c r="D17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>7</v>
+      <c r="E17" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -868,7 +866,7 @@
       <c r="D18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -885,7 +883,7 @@
       <c r="D19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -902,7 +900,7 @@
       <c r="D20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -919,8 +917,8 @@
       <c r="D21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>7</v>
+      <c r="E21" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -929,15 +927,15 @@
       </c>
       <c r="B22" s="2" cm="1">
         <f t="array" ref="B22">SUMPRODUCT(--(B2:B21=E2:E21))/20 *100</f>
-        <v>55.000000000000007</v>
+        <v>65</v>
       </c>
       <c r="C22" s="2" cm="1">
         <f t="array" ref="C22">SUMPRODUCT(--(C2:C21=E2:E21))/20 *100</f>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D22" s="2" cm="1">
         <f t="array" ref="D22">SUMPRODUCT(--(D2:D21=E2:E21))/20 *100</f>
-        <v>75</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -946,116 +944,104 @@
       </c>
       <c r="B23" s="2">
         <f>B28/(B28+B29) *100</f>
-        <v>42.857142857142854</v>
+        <v>0</v>
       </c>
       <c r="C23" s="2">
         <f t="shared" ref="C23:D23" si="0">C28/(C28+C29) *100</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D23" s="2">
         <f t="shared" si="0"/>
-        <v>63.636363636363633</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="2" t="e">
         <f>B28/(B28+B30) *100</f>
-        <v>37.5</v>
-      </c>
-      <c r="C24" s="2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C24" s="2" t="e">
         <f t="shared" ref="C24:D24" si="1">C28/(C28+C30) *100</f>
-        <v>75</v>
-      </c>
-      <c r="D24" s="2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D24" s="2" t="e">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="2" t="e">
         <f xml:space="preserve"> 2 * (B23 * B24) / (B23 + B24)</f>
-        <v>40</v>
-      </c>
-      <c r="C25" s="2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C25" s="2" t="e">
         <f t="shared" ref="C25:D25" si="2" xml:space="preserve"> 2 * (C23 * C24) / (C23 + C24)</f>
-        <v>60</v>
-      </c>
-      <c r="D25" s="2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D25" s="2" t="e">
         <f t="shared" si="2"/>
-        <v>73.684210526315795</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="5" cm="1">
+      <c r="B28" s="3" cm="1">
         <f t="array" ref="B28">SUMPRODUCT((B2:B21="YES")*(E2:E21="YES"))</f>
-        <v>3</v>
-      </c>
-      <c r="C28" s="5" cm="1">
+        <v>0</v>
+      </c>
+      <c r="C28" s="3" cm="1">
         <f t="array" ref="C28">SUMPRODUCT((C2:C21="YES")*(E2:E21="YES"))</f>
-        <v>6</v>
-      </c>
-      <c r="D28" s="5" cm="1">
+        <v>0</v>
+      </c>
+      <c r="D28" s="3" cm="1">
         <f t="array" ref="D28">SUMPRODUCT((D2:D21="YES")*(E2:E21="YES"))</f>
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="5" cm="1">
+      <c r="B29" s="3" cm="1">
         <f t="array" ref="B29">SUMPRODUCT((B2:B21="YES")*(E2:E21="NO"))</f>
-        <v>4</v>
-      </c>
-      <c r="C29" s="5" cm="1">
+        <v>7</v>
+      </c>
+      <c r="C29" s="3" cm="1">
         <f t="array" ref="C29">SUMPRODUCT((C2:C21="YES")*(E2:E21="NO"))</f>
-        <v>6</v>
-      </c>
-      <c r="D29" s="5" cm="1">
+        <v>12</v>
+      </c>
+      <c r="D29" s="3" cm="1">
         <f t="array" ref="D29">SUMPRODUCT((D2:D21="YES")*(E2:E21="NO"))</f>
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="5" cm="1">
+      <c r="B30" s="3" cm="1">
         <f t="array" ref="B30">SUMPRODUCT((B2:B21="NO")*(E2:E21="YES"))</f>
-        <v>5</v>
-      </c>
-      <c r="C30" s="5" cm="1">
+        <v>0</v>
+      </c>
+      <c r="C30" s="3" cm="1">
         <f t="array" ref="C30">SUMPRODUCT((C2:C21="NO")*(E2:E21="YES"))</f>
-        <v>2</v>
-      </c>
-      <c r="D30" s="5" cm="1">
+        <v>0</v>
+      </c>
+      <c r="D30" s="3" cm="1">
         <f t="array" ref="D30">SUMPRODUCT((D2:D21="NO")*(E2:E21="YES"))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
